--- a/biology/Botanique/Plectranthus_glabratus/Plectranthus_glabratus.xlsx
+++ b/biology/Botanique/Plectranthus_glabratus/Plectranthus_glabratus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plectranthus glabratus, appelé aussi Germaine faux-coleus[1], est une espèce de plantes à fleurs de la famille des Lamiaceae. C'est un coléus originaire du sud-ouest de l'Inde.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plectranthus glabratus, appelé aussi Germaine faux-coleus, est une espèce de plantes à fleurs de la famille des Lamiaceae. C'est un coléus originaire du sud-ouest de l'Inde.
 </t>
         </is>
       </c>
@@ -511,14 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plectranthus glabratus est une plante herbacée vivace.
 Les feuilles persistantes sont tendres et pubescentes.
 Elle donne des fleurs violettes.
 Le feuillage est aromatique lorsqu'on le froisse. Cette odeur repousse les cerfs et les moustiques[réf. nécessaire].
-Variétés
-La variété la plus répandue est celle à feuilles panachées vert et blanc dentelées (variegatus).
 </t>
         </is>
       </c>
@@ -544,10 +556,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La variété la plus répandue est celle à feuilles panachées vert et blanc dentelées (variegatus).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Plectranthus_glabratus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plectranthus_glabratus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante apprécie une exposition en plein soleil et ne supporte pas le gel (Zone USDA: 9-11). En cas d'hiver froid, la partie aérienne disparait en hiver puis repart de souche au printemps. Cultivée en pot, la plante peut passer l'hiver en intérieur dans une zone très lumineuse et en réduisant l'arrosage.
 Il se multiplie facilement par bouturage de tête de 15 à 20 centimètres de long quelle que soit la saison[réf. nécessaire]. Attention: la sève des boutures peut tacher[réf. nécessaire].
@@ -556,37 +607,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Plectranthus_glabratus</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Plectranthus_glabratus</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Utilisation</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ornementale. Panier suspendu en raison de ses longs rameaux tombants ou plante de couvert. Cette variété se marie bien avec les géraniums-lierre, les pétunias, héliotropes, les anthémis, bégonias et les coleus.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -608,14 +628,84 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ornementale. Panier suspendu en raison de ses longs rameaux tombants ou plante de couvert. Cette variété se marie bien avec les géraniums-lierre, les pétunias, héliotropes, les anthémis, bégonias et les coleus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Plectranthus_glabratus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plectranthus_glabratus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Cette espèce a été décrite pour la première fois par le botaniste britannique George Bentham (1800-1884). 
-Synonymes
-Selon Kew Garden World Checklist[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite pour la première fois par le botaniste britannique George Bentham (1800-1884). 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Plectranthus_glabratus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plectranthus_glabratus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon Kew Garden World Checklist :
 Coleus glabratus Benth. (synonyme homotypique)
 Coleus paniculatus Benth.
 Coleus wightii Benth.
